--- a/biology/Virologie/Robigovirus/Robigovirus.xlsx
+++ b/biology/Virologie/Robigovirus/Robigovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robigovirus est un genre de virus de la famille des Betaflexiviridae, sous-famille des Quinvirinae, qui comprend cinq espèces acceptées par l'ICTV.
 Ces virus infectent tous les plantes (phytovirus). Ce sont des virus à ARN simple brin à polarité positive, rattachés au groupe IV de la classification Baltimore. Les virions sont en forme de filaments flexueux. 
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Robigovirus », dérivé du latin « robigo », signifiant « rouille »,  en référence aux symptômes de rouille associés à certains des virus, dont l'espèce-type, Cherry necrotic rusty mottle virus, le virus de la marbrure rouillée nécrotique du cerisier[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Robigovirus », dérivé du latin « robigo », signifiant « rouille »,  en référence aux symptômes de rouille associés à certains des virus, dont l'espèce-type, Cherry necrotic rusty mottle virus, le virus de la marbrure rouillée nécrotique du cerisier.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virions, non enveloppés, sont en forme de filaments flexueux, à symétrie hélicoïdale, mesurant de 12 à 13 nm de diamètre sur 800 nm de long[2].
-Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif de 8 à 8,5  kb, qui code 5 protéines. L'extrémité 3' est polyadénylée et l'extrémité 5' est coiffée[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virions, non enveloppés, sont en forme de filaments flexueux, à symétrie hélicoïdale, mesurant de 12 à 13 nm de diamètre sur 800 nm de long.
+Le génome est constitué d'une molécule d'ARN monocaténaire (à simple brin) de sens positif de 8 à 8,5  kb, qui code 5 protéines. L'extrémité 3' est polyadénylée et l'extrémité 5' est coiffée.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des espèces et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (29 janvier 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (29 janvier 2021) :
 African oil palm ringspot virus (AOPRV)
 Cherry green ring mottle virus (CGRMV)
 Cherry necrotic rusty mottle virus (CNRMV)
